--- a/report_template/yearly_report.xlsx
+++ b/report_template/yearly_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -387,6 +387,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -404,9 +407,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +454,7 @@
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  風速  平均值趨勢圖</a:t>
+              <a:t>監測車  風速  平均值趨勢圖</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -776,10 +776,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  二氧化硫  平均值趨勢圖</a:t>
+              <a:t>  二氧化硫  平均值趨勢圖</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
@@ -1193,10 +1199,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站 一氧化碳  平均值趨勢圖</a:t>
+              <a:t> 一氧化碳  平均值趨勢圖</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
@@ -1610,10 +1622,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  二氧化氮  平均值趨勢圖</a:t>
+              <a:t>  二氧化氮  平均值趨勢圖</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
@@ -2027,10 +2045,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  周界臭氧  平均值趨勢圖</a:t>
+              <a:t>  周界臭氧  平均值趨勢圖</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
@@ -2444,10 +2468,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  周界</a:t>
+              <a:t>  周界</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US" sz="1800">
@@ -2873,10 +2903,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  非甲烷  平均值趨勢圖</a:t>
+              <a:t>  非甲烷  平均值趨勢圖</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
@@ -3290,10 +3326,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>監測車</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>大城站  </a:t>
+              <a:t>  </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US" sz="1800">
@@ -4279,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4289,40 +4331,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -4334,40 +4376,40 @@
       <c r="AO1" s="1"/>
     </row>
     <row r="2" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -4379,10 +4421,10 @@
       <c r="AO2" s="1"/>
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
@@ -4398,8 +4440,8 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -4450,31 +4492,31 @@
       <c r="M4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="12" t="s">
         <v>48</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="W4" s="4" t="s">
@@ -5591,40 +5633,40 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1">
@@ -5650,38 +5692,38 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1">
@@ -5707,38 +5749,38 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1">
@@ -5764,38 +5806,38 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1">
@@ -5821,38 +5863,38 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1">

--- a/report_template/yearly_report.xlsx
+++ b/report_template/yearly_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>監測年報表</t>
-  </si>
-  <si>
-    <t>測站名稱：麥寮環境監測中心</t>
   </si>
   <si>
     <t>監測點  ：大城站</t>
@@ -3754,7 +3751,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1025" name="圖表 1"/>
+        <xdr:cNvPr id="1025" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3786,7 +3789,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1026" name="圖表 2"/>
+        <xdr:cNvPr id="1026" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3818,7 +3827,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1027" name="圖表 3"/>
+        <xdr:cNvPr id="1027" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3850,7 +3865,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1028" name="圖表 4"/>
+        <xdr:cNvPr id="1028" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3882,7 +3903,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1029" name="圖表 5"/>
+        <xdr:cNvPr id="1029" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3914,7 +3941,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1030" name="圖表 6"/>
+        <xdr:cNvPr id="1030" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3946,7 +3979,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1031" name="圖表 7"/>
+        <xdr:cNvPr id="1031" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3978,7 +4017,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1032" name="圖表 8"/>
+        <xdr:cNvPr id="1032" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4321,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4376,9 +4421,7 @@
       <c r="AO1" s="1"/>
     </row>
     <row r="2" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4422,14 +4465,14 @@
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -4454,128 +4497,128 @@
     </row>
     <row r="4" spans="1:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4634,7 +4677,7 @@
     </row>
     <row r="6" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4693,7 +4736,7 @@
     </row>
     <row r="7" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4752,7 +4795,7 @@
     </row>
     <row r="8" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4811,7 +4854,7 @@
     </row>
     <row r="9" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4870,7 +4913,7 @@
     </row>
     <row r="10" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4929,7 +4972,7 @@
     </row>
     <row r="11" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4988,7 +5031,7 @@
     </row>
     <row r="12" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -5033,7 +5076,7 @@
     </row>
     <row r="13" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -5092,7 +5135,7 @@
     </row>
     <row r="14" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5137,7 +5180,7 @@
     </row>
     <row r="15" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5182,7 +5225,7 @@
     </row>
     <row r="16" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -5227,7 +5270,7 @@
     </row>
     <row r="17" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5286,7 +5329,7 @@
     </row>
     <row r="18" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5345,7 +5388,7 @@
     </row>
     <row r="19" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5404,7 +5447,7 @@
     </row>
     <row r="20" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5634,7 +5677,7 @@
     </row>
     <row r="24" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
